--- a/src/kilosort_config_files/SILICON PROBE MAP H6.xlsx
+++ b/src/kilosort_config_files/SILICON PROBE MAP H6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\Dropbox\alab\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\Dropbox\alab\Code\spikesort\spikesort-hp\src\kilosort_config_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="16">
   <si>
     <t>A</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Shank Position</t>
   </si>
   <si>
-    <t>Shank: A is the rightmost shank looking at the probe from the front (as it is out of the box). So as implanted in the L hemisphere w/ drive coming from R, A is posterior, B is anterior</t>
-  </si>
-  <si>
     <t>xpos</t>
   </si>
   <si>
@@ -59,6 +56,24 @@
   </si>
   <si>
     <t>Shank Position: 1 = tip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shank: A is the rightmost shank looking at the probe from the front (as it is out of the box). </t>
+  </si>
+  <si>
+    <t>So as implanted in the L hemisphere w/ drive coming from R, A is posterior, B is anterior</t>
+  </si>
+  <si>
+    <t>MolexChannel</t>
+  </si>
+  <si>
+    <t>ShankLetter</t>
+  </si>
+  <si>
+    <t>IntanChannel</t>
+  </si>
+  <si>
+    <t>ShankPosition</t>
   </si>
 </sst>
 </file>
@@ -163,13 +178,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:F65" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F65"/>
   <sortState ref="A2:F65">
-    <sortCondition ref="C1:C65"/>
+    <sortCondition ref="A1:A65"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Intan channel" dataDxfId="5"/>
-    <tableColumn id="2" name="Molex channel" dataDxfId="4"/>
-    <tableColumn id="3" name="Shank Letter" dataDxfId="3"/>
-    <tableColumn id="5" name="Shank Position" dataDxfId="2"/>
+    <tableColumn id="1" name="IntanChannel" dataDxfId="5"/>
+    <tableColumn id="2" name="MolexChannel" dataDxfId="4"/>
+    <tableColumn id="3" name="ShankLetter" dataDxfId="3"/>
+    <tableColumn id="5" name="ShankPosition" dataDxfId="2"/>
     <tableColumn id="4" name="xpos" dataDxfId="1"/>
     <tableColumn id="6" name="ypos" dataDxfId="0"/>
   </tableColumns>
@@ -458,7 +473,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D2" sqref="A2:F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,22 +485,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -493,607 +508,615 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <f>0.25+0.0225</f>
+        <v>0.27250000000000002</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <f>0.25+0.0225</f>
+        <v>0.27250000000000002</v>
       </c>
       <c r="F4" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>0.3125</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>3.7499999999999999E-2</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <f>0.25+0.0225</f>
+        <v>0.27250000000000002</v>
       </c>
       <c r="F6" s="1">
-        <v>0.05</v>
+        <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="F7" s="1">
-        <v>6.25E-2</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F8" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>0.25</v>
       </c>
       <c r="F9" s="1">
-        <v>8.7499999999999994E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <f>0.25+0.0225</f>
+        <v>0.27250000000000002</v>
       </c>
       <c r="F10" s="1">
-        <v>0.1</v>
+        <v>0.26250000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="F11" s="1">
-        <v>0.1125</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <f>0.25+0.0225</f>
+        <v>0.27250000000000002</v>
       </c>
       <c r="F12" s="1">
-        <v>0.125</v>
+        <v>0.38750000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0.13750000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0.16250000000000001</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="F16" s="1">
-        <v>0.17499999999999999</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>0.2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>0.21249999999999999</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>0.22500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E21" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>0.23749999999999999</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="F22" s="1">
-        <v>0.25</v>
+        <v>0.23749999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E23" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="F23" s="1">
-        <v>0.26250000000000001</v>
+        <v>0.38750000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="F24" s="1">
-        <v>0.27500000000000002</v>
+        <v>0.21249999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E25" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="F25" s="1">
-        <v>0.28749999999999998</v>
+        <v>0.33750000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>0.3</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>0.25</v>
       </c>
       <c r="F27" s="1">
-        <v>0.3125</v>
+        <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="F28" s="1">
-        <v>0.32500000000000001</v>
+        <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E29" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>0.33750000000000002</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="F30" s="1">
-        <v>0.35</v>
+        <v>0.16250000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" s="1">
-        <v>2.2499999999999999E-2</v>
+        <f>0.25+0.0225</f>
+        <v>0.27250000000000002</v>
       </c>
       <c r="F31" s="1">
         <v>0.36249999999999999</v>
@@ -1101,698 +1124,692 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="F32" s="1">
-        <v>0.375</v>
+        <v>0.1125</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E33" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>0.25</v>
       </c>
       <c r="F33" s="1">
-        <v>0.38750000000000001</v>
+        <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E34" s="1">
-        <v>0.25</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>8.7499999999999994E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E35" s="1">
         <f>0.25+0.0225</f>
         <v>0.27250000000000002</v>
       </c>
       <c r="F35" s="1">
-        <v>1.2500000000000001E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E36" s="1">
         <v>0.25</v>
       </c>
       <c r="F36" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>19</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="B39" s="1">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40" s="1">
         <f>0.25+0.0225</f>
         <v>0.27250000000000002</v>
       </c>
-      <c r="F37" s="1">
-        <v>3.7499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>61</v>
-      </c>
-      <c r="B38" s="1">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="F40" s="1">
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
         <v>0.25</v>
       </c>
-      <c r="F38" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>51</v>
-      </c>
-      <c r="B39" s="1">
-        <v>33</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>6</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>28</v>
+      </c>
+      <c r="E42" s="1">
         <f>0.25+0.0225</f>
         <v>0.27250000000000002</v>
       </c>
-      <c r="F39" s="1">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>57</v>
-      </c>
-      <c r="B40" s="1">
-        <v>17</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>7</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F40" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>33</v>
-      </c>
-      <c r="B41" s="1">
-        <v>53</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>8</v>
-      </c>
-      <c r="E41" s="1">
-        <f>0.25+0.0225</f>
-        <v>0.27250000000000002</v>
-      </c>
-      <c r="F41" s="1">
-        <v>8.7499999999999994E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>62</v>
-      </c>
-      <c r="B42" s="1">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>9</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.25</v>
-      </c>
       <c r="F42" s="1">
-        <v>0.1</v>
+        <v>0.33750000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E43" s="1">
         <f>0.25+0.0225</f>
         <v>0.27250000000000002</v>
       </c>
       <c r="F43" s="1">
-        <v>0.1125</v>
+        <v>0.23749999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E44" s="1">
-        <v>0.25</v>
+        <f>0.25+0.0225</f>
+        <v>0.27250000000000002</v>
       </c>
       <c r="F44" s="1">
-        <v>0.125</v>
+        <v>0.21249999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E45" s="1">
-        <f>0.25+0.0225</f>
-        <v>0.27250000000000002</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="F45" s="1">
-        <v>0.13750000000000001</v>
+        <v>0.28749999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E46" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E47" s="1">
-        <f>0.25+0.0225</f>
-        <v>0.27250000000000002</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>0.16250000000000001</v>
+        <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E48" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E49" s="1">
-        <f>0.25+0.0225</f>
-        <v>0.27250000000000002</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="F49" s="1">
-        <v>0.1875</v>
+        <v>0.36249999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E50" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>0.2</v>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E51" s="1">
-        <f>0.25+0.0225</f>
-        <v>0.27250000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="F51" s="1">
-        <v>0.21249999999999999</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E52" s="1">
-        <v>0.25</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="F52" s="1">
-        <v>0.22500000000000001</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E53" s="1">
         <f>0.25+0.0225</f>
         <v>0.27250000000000002</v>
       </c>
       <c r="F53" s="1">
-        <v>0.23749999999999999</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E54" s="1">
-        <v>0.25</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="F54" s="1">
-        <v>0.25</v>
+        <v>0.13750000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E55" s="1">
         <f>0.25+0.0225</f>
         <v>0.27250000000000002</v>
       </c>
       <c r="F55" s="1">
-        <v>0.26250000000000001</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56">
         <v>7</v>
       </c>
-      <c r="C56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>23</v>
-      </c>
       <c r="E56" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>0.27500000000000002</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E57" s="1">
         <f>0.25+0.0225</f>
         <v>0.27250000000000002</v>
       </c>
       <c r="F57" s="1">
-        <v>0.28749999999999998</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E58" s="1">
         <v>0.25</v>
       </c>
       <c r="F58" s="1">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E59" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F59" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>23</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>29</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>24</v>
+      </c>
+      <c r="E62" s="1">
         <f>0.25+0.0225</f>
         <v>0.27250000000000002</v>
       </c>
-      <c r="F59" s="1">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>31</v>
-      </c>
-      <c r="B60" s="1">
-        <v>54</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>27</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>40</v>
-      </c>
-      <c r="B61" s="1">
-        <v>20</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>28</v>
-      </c>
-      <c r="E61" s="1">
-        <f>0.25+0.0225</f>
-        <v>0.27250000000000002</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0.33750000000000002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>59</v>
-      </c>
-      <c r="B62" s="1">
-        <v>18</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>29</v>
-      </c>
-      <c r="E62" s="1">
-        <v>0.25</v>
-      </c>
       <c r="F62" s="1">
-        <v>0.35</v>
+        <v>0.28749999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E63" s="1">
-        <f>0.25+0.0225</f>
-        <v>0.27250000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="F63" s="1">
-        <v>0.36249999999999999</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E64" s="1">
         <v>0.25</v>
       </c>
       <c r="F64" s="1">
-        <v>0.375</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E65" s="1">
         <f>0.25+0.0225</f>
         <v>0.27250000000000002</v>
       </c>
       <c r="F65" s="1">
-        <v>0.38750000000000001</v>
+        <v>0.13750000000000001</v>
       </c>
     </row>
   </sheetData>
